--- a/Disciplinas_DS_Petrobas.xlsx
+++ b/Disciplinas_DS_Petrobas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,14 +360,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>ÊNFASE 7: CIÊNCIA DE DADOS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ÊNFASE 7: CIÊNCIA DE DADOS – BLOCO I: 1 Aprendizado supervisionado: Regressão e Classificação</t>
+          <t>BLOCO I: 1 Aprendizado supervisionado: Regressão e Classificação</t>
         </is>
       </c>
     </row>
@@ -837,6 +837,181 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>2 Álgebra Linear para Ciência</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>de Dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2.1 Notação de vetores e matrizes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2.2 Operações com vetores e matrizes; produto escalar e produto vetorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2.3 Matriz identidade, inversa e transposta</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2.4 Transformações lineares</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2.5 Normas (L1, L2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2.6 Autovalores e autovetores</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2.7 Decomposição SVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2.8 Álgebra linear e operações matriciais com Python Numpy</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3 Probabilidade e estatística</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3.1 Conceitos de Probabilidade: Modelo de probabilidade, Probabilidade Condicional, Independência, Variáveis Aleatórias, Esperança, Variância e Covariância</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3.2 Distribuições Contínuas e Discretas: Normal, t-Student, Poisson, Exponencial, Binomial, Dirichlet</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3.3 Distribuições multidimensionais; matriz de covariância</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3.4 Estatísticas Descritivas</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3.5 Inferência Estatística: Teorema do Limite Central, Teste de Hipótese e Intervalo de Confiança, Estimador de Máxima Verossimilhança, Inferência Bayesiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3.6 Coeficiente de correlação de Pearson</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3.7 Histogramas e curvas de frequência</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3.8 Diagrama boxplot</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3.9 Avaliação de outliers</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4 Algoritmos e estrutura de dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4.1 Complexidade de algoritmos e notação assintótica (Big O)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>5 Conceitos modernos de sistemas de informação</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>5.1 Conceitos Nuvem: IaaS, PaaS e SaaS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>5.2 Conceitos de Containers: construção, registro, execução e orquestração</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5.3 Conceitos básicos de DevOps: versionamento com git, pipeline e CI/CD.</t>
         </is>
       </c>
     </row>
